--- a/Excels/ABA Reservation Info.xlsx
+++ b/Excels/ABA Reservation Info.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock.ullyott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tszyeunglam/GitHub/CPSC471_Project/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="5240" yWindow="8500" windowWidth="22820" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -32,58 +38,73 @@
     <t>Rates</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>$50/Day</t>
   </si>
   <si>
-    <t>403-555-5555</t>
-  </si>
-  <si>
     <t>255 North Calgary Tail</t>
   </si>
   <si>
     <t>123 South Calgary Trail</t>
   </si>
   <si>
-    <t>403-555-5556</t>
-  </si>
-  <si>
     <t>Reservation Number</t>
   </si>
   <si>
     <t>$55/Day</t>
   </si>
   <si>
-    <t>403-555-5557</t>
-  </si>
-  <si>
-    <t>403-555-5558</t>
-  </si>
-  <si>
-    <t>403-555-5559</t>
-  </si>
-  <si>
-    <t>403-666-6661</t>
-  </si>
-  <si>
-    <t>403-666-6662</t>
-  </si>
-  <si>
-    <t>403-666-6663</t>
-  </si>
-  <si>
-    <t>403-666-6664</t>
-  </si>
-  <si>
-    <t>403-666-6665</t>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>23/05/2017-28/05/2017</t>
+  </si>
+  <si>
+    <t>23/05/2017-28/06/2017</t>
+  </si>
+  <si>
+    <t>23/04/2017-28/07/2017</t>
+  </si>
+  <si>
+    <t>23/02/2017-05/04/2017</t>
+  </si>
+  <si>
+    <t>04/06/2017-28/07/2017</t>
+  </si>
+  <si>
+    <t>25/08/2017-22/09/2017</t>
+  </si>
+  <si>
+    <t>23/09/2017-28/09/2017</t>
+  </si>
+  <si>
+    <t>01/12/2017-05/12/2017</t>
+  </si>
+  <si>
+    <t>14/11/2017-23/11/2017</t>
+  </si>
+  <si>
+    <t>21/08/2017-24/08/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,172 +416,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>123456789</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>124</v>
+      </c>
+      <c r="F3">
+        <v>133456789</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>427</v>
+      </c>
+      <c r="F4">
+        <v>986754382</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>521</v>
+      </c>
+      <c r="F5">
+        <v>364527183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>134</v>
+      </c>
+      <c r="F6">
+        <v>321321312</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>332</v>
+      </c>
+      <c r="F7">
+        <v>654654654</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>141</v>
+      </c>
+      <c r="F8">
+        <v>888999000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>231</v>
+      </c>
+      <c r="F9">
+        <v>970960593</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>344</v>
+      </c>
+      <c r="F10">
+        <v>563018920</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>151</v>
+      </c>
+      <c r="F11">
+        <v>133456789</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
